--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudia7/MEGA/MEGAsync/COMUNE/STUDIO.LAVORO/IMBRSea/Thesis/StatAnalysis/Multi-taxa_data/MollEchino/Ech_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18025AA1-DD95-2A43-B78D-856E04C1CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F7BEC-08FC-46BB-BE95-07148047D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="62">
   <si>
     <t>PHOTO</t>
   </si>
@@ -518,17 +518,17 @@
   </sheetPr>
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B75" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -563,7 +563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
@@ -632,17 +632,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
@@ -652,11 +646,9 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
@@ -666,11 +658,9 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
@@ -683,11 +673,9 @@
       <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
@@ -697,22 +685,18 @@
       <c r="K10" s="4">
         <v>1.5</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
@@ -722,16 +706,10 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="N12" s="1">
-        <f>SUM(N7:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f>SUM(O7:O11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
@@ -742,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
@@ -753,7 +731,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
@@ -764,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
@@ -775,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
@@ -786,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
@@ -797,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
@@ -808,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
@@ -819,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
@@ -830,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>35</v>
       </c>
@@ -841,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
@@ -852,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
@@ -863,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
         <v>35</v>
       </c>
@@ -874,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>36</v>
       </c>
@@ -885,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>36</v>
       </c>
@@ -896,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>36</v>
       </c>
@@ -907,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>37</v>
       </c>
@@ -918,7 +896,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
@@ -929,7 +907,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>37</v>
       </c>
@@ -940,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>37</v>
       </c>
@@ -951,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
@@ -962,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>38</v>
       </c>
@@ -970,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>39</v>
       </c>
@@ -981,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>40</v>
       </c>
@@ -992,7 +970,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>41</v>
       </c>
@@ -1014,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1025,7 +1003,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1036,7 +1014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1047,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>44</v>
       </c>
@@ -1058,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>44</v>
       </c>
@@ -1080,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1091,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1102,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
         <v>45</v>
       </c>
@@ -1157,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
         <v>45</v>
       </c>
@@ -1168,7 +1146,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -1179,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="4" t="s">
         <v>45</v>
       </c>
@@ -1201,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -1212,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="4" t="s">
         <v>46</v>
       </c>
@@ -1223,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="s">
         <v>46</v>
       </c>
@@ -1234,7 +1212,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
         <v>46</v>
       </c>
@@ -1256,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="4" t="s">
         <v>46</v>
       </c>
@@ -1267,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="4" t="s">
         <v>46</v>
       </c>
@@ -1278,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="4" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="4" t="s">
         <v>47</v>
       </c>
@@ -1300,7 +1278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="4" t="s">
         <v>48</v>
       </c>
@@ -1311,7 +1289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="4" t="s">
         <v>48</v>
       </c>
@@ -1322,7 +1300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="4" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" s="4" t="s">
         <v>50</v>
       </c>
@@ -1344,7 +1322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E69" s="4" t="s">
         <v>51</v>
       </c>
@@ -1355,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E70" s="4" t="s">
         <v>51</v>
       </c>
@@ -1366,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E71" s="4" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E72" s="4" t="s">
         <v>51</v>
       </c>
@@ -1388,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E74" s="4" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
         <v>52</v>
       </c>
@@ -1421,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
         <v>52</v>
       </c>
@@ -1432,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
         <v>52</v>
       </c>
@@ -1443,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E78" s="4" t="s">
         <v>52</v>
       </c>
@@ -1454,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E79" s="4" t="s">
         <v>53</v>
       </c>
@@ -1465,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E80" s="4" t="s">
         <v>57</v>
       </c>
@@ -1476,7 +1454,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E81" s="4" t="s">
         <v>57</v>
       </c>
@@ -1487,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
         <v>53</v>
       </c>
@@ -1498,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84" s="4" t="s">
         <v>54</v>
       </c>
@@ -1520,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="4" t="s">
         <v>55</v>
       </c>
@@ -1531,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="4" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1520,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="4" t="s">
         <v>58</v>
       </c>
@@ -1553,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E88" s="4" t="s">
         <v>59</v>
       </c>
@@ -1564,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
         <v>60</v>
       </c>
@@ -1575,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
         <v>60</v>
       </c>
@@ -1597,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
         <v>61</v>
       </c>
@@ -1605,7 +1583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
         <v>61</v>
       </c>
@@ -1613,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E94" s="4" t="s">
         <v>61</v>
       </c>
@@ -1621,237 +1599,237 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G113" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G114" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G115" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G116" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G117" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G120" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G122" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G123" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G124" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G125" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G126" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G127" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G129" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G130" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G131" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G132" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G133" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G134" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G135" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G136" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G137" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G138" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G139" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="s">
         <v>9</v>
       </c>
@@ -1871,12 +1849,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1910,32 +1888,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <f>SUM(I3:I7)</f>
         <v>0</v>
@@ -1959,12 +1937,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1998,32 +1976,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <f>SUM(I3:I7)</f>
         <v>0</v>
@@ -2047,12 +2025,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2086,32 +2064,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <f>SUM(I3:I7)</f>
         <v>0</v>
@@ -2135,12 +2113,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2174,32 +2152,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <f>SUM(I3:I7)</f>
         <v>0</v>
@@ -2223,12 +2201,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2262,32 +2240,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <f>SUM(I3:I7)</f>
         <v>0</v>

--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F7BEC-08FC-46BB-BE95-07148047D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7296ED6F-D779-454F-B606-19F384867922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="61">
   <si>
     <t>PHOTO</t>
   </si>
@@ -97,21 +97,6 @@
     <t>SIZE (cm)</t>
   </si>
   <si>
-    <t>ZP_D1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Deep</t>
-  </si>
-  <si>
-    <t>Jue</t>
-  </si>
-  <si>
-    <t>ZP_D</t>
-  </si>
-  <si>
     <t>GOPR2467</t>
   </si>
   <si>
@@ -223,7 +208,19 @@
     <t>GOPR2501</t>
   </si>
   <si>
-    <t>GOPR2502</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>ZP_S1</t>
+  </si>
+  <si>
+    <t>ZP_Shallow</t>
+  </si>
+  <si>
+    <t>Shallow</t>
+  </si>
+  <si>
+    <t>JAAL</t>
   </si>
 </sst>
 </file>
@@ -518,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P1048576"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,22 +562,22 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -591,7 +588,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
@@ -602,7 +599,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
@@ -613,7 +610,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
@@ -624,7 +621,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
@@ -638,7 +635,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
@@ -650,7 +647,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
@@ -662,7 +659,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
@@ -689,16 +686,16 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
@@ -711,7 +708,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>9</v>
@@ -722,7 +719,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>9</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>9</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>9</v>
@@ -755,7 +752,7 @@
     </row>
     <row r="17" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>9</v>
@@ -766,7 +763,7 @@
     </row>
     <row r="18" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>9</v>
@@ -777,7 +774,7 @@
     </row>
     <row r="19" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>9</v>
@@ -788,7 +785,7 @@
     </row>
     <row r="20" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>9</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>9</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>9</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>9</v>
@@ -843,7 +840,7 @@
     </row>
     <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>9</v>
@@ -854,7 +851,7 @@
     </row>
     <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>9</v>
@@ -865,7 +862,7 @@
     </row>
     <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>9</v>
@@ -876,7 +873,7 @@
     </row>
     <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>9</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>9</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>9</v>
@@ -909,7 +906,7 @@
     </row>
     <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>9</v>
@@ -920,7 +917,7 @@
     </row>
     <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>9</v>
@@ -931,7 +928,7 @@
     </row>
     <row r="33" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>9</v>
@@ -942,15 +939,15 @@
     </row>
     <row r="34" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>9</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="36" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>9</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="37" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>9</v>
@@ -983,7 +980,7 @@
     </row>
     <row r="38" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>9</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="39" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>9</v>
@@ -1005,18 +1002,18 @@
     </row>
     <row r="40" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>9</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="42" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>9</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="43" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>9</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="44" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>9</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="45" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>9</v>
@@ -1071,7 +1068,7 @@
     </row>
     <row r="46" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>9</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="47" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>9</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="48" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>9</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="49" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>9</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="50" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>9</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="51" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>9</v>
@@ -1137,7 +1134,7 @@
     </row>
     <row r="52" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>9</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="53" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>9</v>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="54" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>9</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="55" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>9</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="56" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>9</v>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="57" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>9</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="58" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>9</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="59" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>9</v>
@@ -1225,7 +1222,7 @@
     </row>
     <row r="60" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E60" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>9</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="61" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>9</v>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="62" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>9</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="63" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>9</v>
@@ -1269,40 +1266,40 @@
     </row>
     <row r="64" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>9</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="68" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>9</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="69" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E69" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>9</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="70" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E70" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>9</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="71" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E71" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>9</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="72" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E72" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>9</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="73" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>9</v>
@@ -1379,7 +1376,7 @@
     </row>
     <row r="74" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E74" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>9</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="75" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>9</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="76" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>9</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="77" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>9</v>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="78" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E78" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>9</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="79" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E79" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>9</v>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="80" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E80" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>9</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="81" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E81" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>9</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="82" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>9</v>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="83" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>9</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="84" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>9</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="85" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>9</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="86" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>9</v>
@@ -1522,7 +1519,7 @@
     </row>
     <row r="87" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>12</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="88" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E88" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>9</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="89" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>9</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="90" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>9</v>
@@ -1565,274 +1562,164 @@
       </c>
     </row>
     <row r="91" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E91" s="4"/>
+      <c r="G91" s="4"/>
       <c r="K91">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G103" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G104" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G105" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G106" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G107" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G108" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G109" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G110" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G111" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G112" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G113" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G114" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G115" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G116" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G117" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G118" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G119" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G120" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G121" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G122" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G123" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G124" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G125" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G126" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G127" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G128" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G129" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G130" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G131" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G132" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G133" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G134" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G135" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G136" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G137" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G138" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G139" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G140" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G141" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G141" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_ZP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7296ED6F-D779-454F-B606-19F384867922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBBEDF-6BE1-4E76-862F-8F24FA478075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="61">
   <si>
     <t>PHOTO</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -587,9 +587,24 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
@@ -598,9 +613,24 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
@@ -609,9 +639,24 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -620,8 +665,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
@@ -634,9 +694,24 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
@@ -646,9 +721,24 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
@@ -658,8 +748,23 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
@@ -673,9 +778,24 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
@@ -685,18 +805,48 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
@@ -707,9 +857,24 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
@@ -718,9 +883,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
@@ -729,9 +909,24 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
@@ -740,9 +935,24 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
@@ -750,10 +960,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
@@ -761,10 +986,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
@@ -772,10 +1012,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
@@ -783,10 +1038,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,10 +1064,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
@@ -805,10 +1090,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
@@ -816,10 +1116,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>9</v>
       </c>
@@ -827,10 +1142,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
@@ -838,10 +1168,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
@@ -849,10 +1194,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
@@ -860,10 +1220,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>9</v>
       </c>
@@ -871,10 +1246,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
@@ -882,10 +1272,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
@@ -893,10 +1298,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
@@ -904,10 +1324,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
@@ -915,10 +1350,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
@@ -926,10 +1376,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>9</v>
       </c>
@@ -937,18 +1402,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F34" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="4" t="s">
         <v>9</v>
       </c>
@@ -956,10 +1451,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="F36" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G36" s="4" t="s">
         <v>9</v>
       </c>
@@ -967,10 +1477,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F37" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G37" s="4" t="s">
         <v>9</v>
       </c>
@@ -978,10 +1503,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F38" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="4" t="s">
         <v>9</v>
       </c>
@@ -989,10 +1529,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F39" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>9</v>
       </c>
@@ -1000,10 +1555,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="F40" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
       </c>
@@ -1011,10 +1581,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F41" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G41" s="4" t="s">
         <v>9</v>
       </c>
@@ -1022,10 +1607,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F42" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="4" t="s">
         <v>9</v>
       </c>
@@ -1033,10 +1633,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F43" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G43" s="4" t="s">
         <v>9</v>
       </c>
@@ -1044,10 +1659,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E44" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F44" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G44" s="4" t="s">
         <v>9</v>
       </c>
@@ -1055,10 +1685,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F45" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>9</v>
       </c>
@@ -1066,10 +1711,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F46" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G46" s="4" t="s">
         <v>9</v>
       </c>
@@ -1077,10 +1737,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E47" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F47" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G47" s="4" t="s">
         <v>9</v>
       </c>
@@ -1088,10 +1763,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F48" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="4" t="s">
         <v>9</v>
       </c>
@@ -1099,10 +1789,25 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F49" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1110,10 +1815,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E50" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F50" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G50" s="4" t="s">
         <v>9</v>
       </c>
@@ -1121,10 +1841,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F51" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G51" s="4" t="s">
         <v>9</v>
       </c>
@@ -1132,10 +1867,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F52" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G52" s="4" t="s">
         <v>9</v>
       </c>
@@ -1143,10 +1893,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F53" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G53" s="4" t="s">
         <v>9</v>
       </c>
@@ -1154,10 +1919,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F54" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G54" s="4" t="s">
         <v>9</v>
       </c>
@@ -1165,10 +1945,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F55" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G55" s="4" t="s">
         <v>9</v>
       </c>
@@ -1176,10 +1971,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E56" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F56" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" s="4" t="s">
         <v>9</v>
       </c>
@@ -1187,10 +1997,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F57" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G57" s="4" t="s">
         <v>9</v>
       </c>
@@ -1198,10 +2023,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F58" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G58" s="4" t="s">
         <v>9</v>
       </c>
@@ -1209,10 +2049,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E59" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F59" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="4" t="s">
         <v>9</v>
       </c>
@@ -1220,10 +2075,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E60" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F60" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G60" s="4" t="s">
         <v>9</v>
       </c>
@@ -1231,10 +2101,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E61" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F61" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G61" s="4" t="s">
         <v>9</v>
       </c>
@@ -1242,10 +2127,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E62" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F62" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G62" s="4" t="s">
         <v>9</v>
       </c>
@@ -1253,10 +2153,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E63" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F63" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G63" s="4" t="s">
         <v>9</v>
       </c>
@@ -1264,10 +2179,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E64" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F64" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G64" s="4" t="s">
         <v>13</v>
       </c>
@@ -1275,10 +2205,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="F65" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
       </c>
@@ -1286,10 +2231,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="F66" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G66" s="4" t="s">
         <v>13</v>
       </c>
@@ -1297,10 +2257,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E67" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F67" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G67" s="4" t="s">
         <v>9</v>
       </c>
@@ -1308,10 +2283,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E68" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="F68" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G68" s="4" t="s">
         <v>9</v>
       </c>
@@ -1319,10 +2309,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E69" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F69" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G69" s="4" t="s">
         <v>9</v>
       </c>
@@ -1330,10 +2335,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E70" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F70" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G70" s="4" t="s">
         <v>9</v>
       </c>
@@ -1341,10 +2361,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E71" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F71" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G71" s="4" t="s">
         <v>9</v>
       </c>
@@ -1352,10 +2387,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E72" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F72" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G72" s="4" t="s">
         <v>9</v>
       </c>
@@ -1363,10 +2413,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E73" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F73" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G73" s="4" t="s">
         <v>9</v>
       </c>
@@ -1374,10 +2439,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E74" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F74" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G74" s="4" t="s">
         <v>9</v>
       </c>
@@ -1385,10 +2465,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E75" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="F75" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G75" s="4" t="s">
         <v>9</v>
       </c>
@@ -1396,10 +2491,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E76" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="F76" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G76" s="4" t="s">
         <v>9</v>
       </c>
@@ -1407,10 +2517,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E77" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="F77" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G77" s="4" t="s">
         <v>9</v>
       </c>
@@ -1418,10 +2543,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E78" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="F78" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G78" s="4" t="s">
         <v>9</v>
       </c>
@@ -1429,10 +2569,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E79" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F79" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G79" s="4" t="s">
         <v>9</v>
       </c>
@@ -1440,10 +2595,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E80" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="F80" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G80" s="4" t="s">
         <v>9</v>
       </c>
@@ -1451,10 +2621,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E81" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="F81" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G81" s="4" t="s">
         <v>9</v>
       </c>
@@ -1462,10 +2647,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E82" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F82" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G82" s="4" t="s">
         <v>9</v>
       </c>
@@ -1473,10 +2673,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E83" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F83" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G83" s="4" t="s">
         <v>9</v>
       </c>
@@ -1484,10 +2699,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E84" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="F84" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G84" s="4" t="s">
         <v>9</v>
       </c>
@@ -1495,10 +2725,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E85" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="F85" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G85" s="4" t="s">
         <v>9</v>
       </c>
@@ -1506,10 +2751,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E86" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="F86" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G86" s="4" t="s">
         <v>9</v>
       </c>
@@ -1517,10 +2777,25 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E87" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="F87" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
@@ -1528,10 +2803,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E88" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F88" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G88" s="4" t="s">
         <v>9</v>
       </c>
@@ -1539,10 +2829,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E89" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F89" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G89" s="4" t="s">
         <v>9</v>
       </c>
@@ -1550,10 +2855,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E90" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F90" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G90" s="4" t="s">
         <v>9</v>
       </c>
@@ -1561,29 +2881,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="4"/>
       <c r="G91" s="4"/>
       <c r="K91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
